--- a/Team-Data/2013-14/3-12-2013-14.xlsx
+++ b/Team-Data/2013-14/3-12-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>10</v>
@@ -762,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -786,10 +853,10 @@
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -804,16 +871,16 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,19 +933,19 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K3" t="n">
         <v>0.434</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
@@ -887,16 +954,16 @@
         <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
         <v>20.5</v>
@@ -905,16 +972,16 @@
         <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
         <v>19.3</v>
@@ -923,25 +990,25 @@
         <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4</v>
+        <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -953,34 +1020,34 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
         <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1054,13 +1121,13 @@
         <v>0.452</v>
       </c>
       <c r="L4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M4" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O4" t="n">
         <v>18.7</v>
@@ -1069,7 +1136,7 @@
         <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
         <v>8.9</v>
@@ -1099,28 +1166,28 @@
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
         <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1147,10 +1214,10 @@
         <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS4" t="n">
         <v>29</v>
@@ -1162,22 +1229,22 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1233,7 +1300,7 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,34 +1309,34 @@
         <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
         <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
         <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T5" t="n">
         <v>41.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
         <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
         <v>5.1</v>
@@ -1278,7 +1345,7 @@
         <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
         <v>21.1</v>
@@ -1287,7 +1354,7 @@
         <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1514,10 +1581,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1529,10 +1596,10 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
         <v>40</v>
       </c>
       <c r="G7" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1594,37 +1661,37 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
         <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U7" t="n">
         <v>20.4</v>
@@ -1648,25 +1715,25 @@
         <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.4</v>
+        <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
         <v>22</v>
       </c>
-      <c r="AF7" t="n">
-        <v>21</v>
-      </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1681,25 +1748,25 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1708,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>23</v>
@@ -1717,7 +1784,7 @@
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.591</v>
+        <v>0.585</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,10 +1843,10 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>8.4</v>
@@ -1788,22 +1855,22 @@
         <v>22.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T8" t="n">
         <v>40.2</v>
@@ -1815,16 +1882,16 @@
         <v>13.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
         <v>19.8</v>
@@ -1851,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>0.438</v>
+        <v>0.429</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J9" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L9" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9" t="n">
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
         <v>18.8</v>
@@ -1979,19 +2046,19 @@
         <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V9" t="n">
         <v>15.7</v>
@@ -2006,19 +2073,19 @@
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2027,13 +2094,13 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2057,25 +2124,25 @@
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2090,7 +2157,7 @@
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.391</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2140,7 +2207,7 @@
         <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.449</v>
@@ -2149,37 +2216,37 @@
         <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.669</v>
+        <v>0.673</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T10" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2188,31 +2255,31 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2248,19 +2315,19 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.621</v>
+        <v>0.631</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J11" t="n">
         <v>85.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.377</v>
@@ -2340,7 +2407,7 @@
         <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.746</v>
@@ -2349,13 +2416,13 @@
         <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U11" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
         <v>15.5</v>
@@ -2364,22 +2431,22 @@
         <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2415,10 +2482,10 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2430,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2442,19 +2509,19 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
@@ -2627,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2818,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.697</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2877,28 +2944,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U14" t="n">
         <v>24.4</v>
@@ -2910,10 +2977,10 @@
         <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>21.7</v>
@@ -2922,10 +2989,10 @@
         <v>23.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,22 +3010,22 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -3110,28 +3177,28 @@
         <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>2</v>
@@ -3143,13 +3210,13 @@
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3167,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.594</v>
+        <v>0.587</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
         <v>0.462</v>
@@ -3241,19 +3308,19 @@
         <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
@@ -3286,13 +3353,13 @@
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC16" t="n">
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3307,10 +3374,10 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3349,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX16" t="n">
         <v>16</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="n">
         <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>0.71</v>
+        <v>0.721</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
-        <v>0.507</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O17" t="n">
         <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.762</v>
       </c>
       <c r="R17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
@@ -3459,7 +3526,7 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>20</v>
@@ -3468,19 +3535,19 @@
         <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3513,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,13 +3735,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3689,13 +3756,13 @@
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>11</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>18</v>
@@ -3716,16 +3783,16 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
         <v>16</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3886,16 +3953,16 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>5</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -3942,49 +4009,49 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
         <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.406</v>
+        <v>0.413</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M20" t="n">
         <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P20" t="n">
         <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
         <v>30.2</v>
@@ -3993,13 +4060,13 @@
         <v>42.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>14</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
@@ -4008,19 +4075,19 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
         <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4059,19 +4126,19 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4083,19 +4150,19 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.394</v>
+        <v>0.385</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4145,46 +4212,46 @@
         <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O21" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P21" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W21" t="n">
         <v>7.7</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>3.7</v>
@@ -4196,22 +4263,22 @@
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
@@ -4220,7 +4287,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
@@ -4229,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4259,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>18</v>
@@ -4271,13 +4338,13 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N23" t="n">
         <v>0.349</v>
@@ -4524,25 +4591,25 @@
         <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R23" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S23" t="n">
         <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
@@ -4554,13 +4621,13 @@
         <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.2</v>
@@ -4581,10 +4648,10 @@
         <v>4</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4599,10 +4666,10 @@
         <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>13</v>
@@ -4611,16 +4678,16 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>0.234</v>
+        <v>0.238</v>
       </c>
       <c r="H24" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I24" t="n">
         <v>38.1</v>
       </c>
       <c r="J24" t="n">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.433</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M24" t="n">
         <v>22</v>
       </c>
       <c r="N24" t="n">
-        <v>0.306</v>
+        <v>0.305</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
         <v>23.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.717</v>
+        <v>0.714</v>
       </c>
       <c r="R24" t="n">
         <v>11.8</v>
@@ -4718,13 +4785,13 @@
         <v>31.8</v>
       </c>
       <c r="T24" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U24" t="n">
         <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
@@ -4733,22 +4800,22 @@
         <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
         <v>99.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.3</v>
+        <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,10 +4827,10 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4781,25 +4848,25 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="n">
         <v>12</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="n">
         <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,37 +4937,37 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P25" t="n">
         <v>24.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
         <v>19.4</v>
@@ -4927,19 +4994,19 @@
         <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4954,10 +5021,10 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
@@ -4969,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
@@ -4978,19 +5045,19 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.646</v>
+        <v>0.656</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J26" t="n">
-        <v>87.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O26" t="n">
         <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
@@ -5082,16 +5149,16 @@
         <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V26" t="n">
         <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
@@ -5106,10 +5173,10 @@
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.2</v>
+        <v>107.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5124,28 +5191,28 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP26" t="n">
         <v>13</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
         <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.354</v>
+        <v>0.344</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5249,49 +5316,49 @@
         <v>0.337</v>
       </c>
       <c r="O27" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V27" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z27" t="n">
         <v>22.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>6</v>
@@ -5348,13 +5415,13 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
         <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>22</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,49 +5483,49 @@
         <v>40.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
         <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
         <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
         <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5467,16 +5534,16 @@
         <v>18.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
         <v>104.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5518,13 +5585,13 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.571</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,10 +5665,10 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
@@ -5610,7 +5677,7 @@
         <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O29" t="n">
         <v>19.2</v>
@@ -5622,13 +5689,13 @@
         <v>0.776</v>
       </c>
       <c r="R29" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
         <v>21.3</v>
@@ -5637,7 +5704,7 @@
         <v>14.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
@@ -5646,43 +5713,43 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB29" t="n">
         <v>100.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
         <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5691,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
@@ -5703,19 +5770,19 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
         <v>22</v>
       </c>
       <c r="F30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5783,16 +5850,16 @@
         <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M30" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O30" t="n">
         <v>16.4</v>
@@ -5822,19 +5889,19 @@
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC30" t="n">
         <v>-6</v>
@@ -5843,16 +5910,16 @@
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH30" t="n">
         <v>26</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
@@ -5870,19 +5937,19 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>22</v>
       </c>
       <c r="AP30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>21</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>22</v>
-      </c>
       <c r="AR30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
@@ -5894,22 +5961,22 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA30" t="n">
         <v>17</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.516</v>
+        <v>0.524</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J31" t="n">
         <v>84.8</v>
@@ -5971,37 +6038,37 @@
         <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6013,31 +6080,31 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6058,28 +6125,28 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
       </c>
       <c r="AR31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS31" t="n">
         <v>18</v>
       </c>
-      <c r="AS31" t="n">
-        <v>19</v>
-      </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6091,13 +6158,13 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
       </c>
       <c r="BC31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-12-2013-14</t>
+          <t>2014-03-12</t>
         </is>
       </c>
     </row>
